--- a/output/StructureDefinition-fp-narrative-history-of-status.xlsx
+++ b/output/StructureDefinition-fp-narrative-history-of-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T12:58:34-04:00</t>
+    <t>2022-04-26T11:43:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fp-narrative-history-of-status.xlsx
+++ b/output/StructureDefinition-fp-narrative-history-of-status.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:43:49-04:00</t>
+    <t>2022-05-13T16:07:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">pattern:coding}
 </t>
   </si>
   <si>
@@ -1828,7 +1828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1837,47 +1837,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="158.41015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="159.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -4587,15 +4587,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>91</v>
@@ -4607,23 +4607,19 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4647,11 +4643,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4669,10 +4667,10 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>91</v>
@@ -4681,41 +4679,41 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4724,23 +4722,21 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4776,46 +4772,46 @@
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4823,7 +4819,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4846,18 +4842,20 @@
         <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4881,13 +4879,11 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4905,7 +4901,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4926,13 +4922,13 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4940,11 +4936,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4963,19 +4959,19 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5024,7 +5020,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5039,19 +5035,19 @@
         <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5059,11 +5055,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5082,19 +5078,19 @@
         <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -5119,13 +5115,11 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5143,10 +5137,10 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>91</v>
@@ -5158,27 +5152,27 @@
         <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5186,7 +5180,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>91</v>
@@ -5201,18 +5195,20 @@
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5275,19 +5271,19 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5295,7 +5291,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5303,7 +5299,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>80</v>
@@ -5318,18 +5314,18 @@
         <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5392,19 +5388,19 @@
         <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5412,15 +5408,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>91</v>
@@ -5435,19 +5431,19 @@
         <v>92</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5496,7 +5492,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5505,41 +5501,41 @@
         <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>91</v>
@@ -5551,22 +5547,22 @@
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5591,13 +5587,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5615,7 +5611,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5624,25 +5620,25 @@
         <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5650,18 +5646,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5670,23 +5666,21 @@
         <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5710,13 +5704,13 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
@@ -5734,13 +5728,13 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
@@ -5752,24 +5746,24 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5777,7 +5771,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>80</v>
@@ -5789,22 +5783,20 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -5853,7 +5845,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5868,19 +5860,19 @@
         <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5888,7 +5880,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5896,7 +5888,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>91</v>
@@ -5908,21 +5900,23 @@
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5946,13 +5940,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -5970,7 +5964,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5973,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -5988,24 +5982,24 @@
         <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>355</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6031,16 +6025,16 @@
         <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
@@ -6065,13 +6059,13 @@
         <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6089,7 +6083,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6098,7 +6092,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6110,10 +6104,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>362</v>
+        <v>134</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6124,18 +6118,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>81</v>
@@ -6147,18 +6141,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>365</v>
+        <v>199</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6182,13 +6178,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6206,13 +6202,13 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
@@ -6224,24 +6220,24 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6252,7 +6248,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6264,18 +6260,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6323,13 +6321,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6341,24 +6339,24 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6369,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6381,20 +6379,18 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6418,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6442,42 +6438,42 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6500,16 +6496,20 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6533,13 +6533,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6557,7 +6557,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6569,7 +6569,7 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>81</v>
@@ -6578,10 +6578,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6592,18 +6592,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6615,16 +6615,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6674,78 +6674,76 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6793,42 +6791,42 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6839,7 +6837,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -6851,16 +6849,20 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>397</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6908,19 +6910,19 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>81</v>
@@ -6929,10 +6931,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6943,7 +6945,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6966,13 +6968,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>396</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7023,7 +7025,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7032,10 +7034,10 @@
         <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7044,10 +7046,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7058,18 +7060,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7081,20 +7083,18 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7118,13 +7118,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7142,31 +7142,31 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7177,11 +7177,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7194,25 +7194,25 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>419</v>
+        <v>157</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7237,13 +7237,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7261,7 +7261,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7273,19 +7273,19 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7319,18 +7319,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7378,7 +7376,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7385,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7399,10 +7397,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7413,7 +7411,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7436,13 +7434,13 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7493,7 +7491,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7502,7 +7500,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -7517,7 +7515,7 @@
         <v>400</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7528,7 +7526,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7539,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7548,21 +7546,23 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7586,13 +7586,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7610,13 +7610,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7628,13 +7628,13 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>437</v>
+        <v>336</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7665,21 +7665,23 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>439</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7703,13 +7705,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7727,7 +7729,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7745,13 +7747,13 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7762,7 +7764,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7773,7 +7775,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -7782,22 +7784,20 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7846,13 +7846,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -7867,10 +7867,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7907,10 +7907,10 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7961,7 +7961,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>216</v>
+        <v>428</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7973,7 +7973,7 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
@@ -7982,10 +7982,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -7996,11 +7996,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8016,19 +8016,19 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>136</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>156</v>
+        <v>435</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8078,7 +8078,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8090,7 +8090,7 @@
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>81</v>
@@ -8099,10 +8099,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8113,11 +8113,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8130,26 +8130,24 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8197,7 +8195,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8207,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -8218,10 +8216,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>134</v>
+        <v>442</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8232,7 +8230,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8240,10 +8238,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8255,19 +8253,19 @@
         <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>453</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>248</v>
+        <v>446</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8292,13 +8290,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8316,13 +8314,13 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
@@ -8334,16 +8332,16 @@
         <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>252</v>
+        <v>447</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>253</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8351,7 +8349,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8371,23 +8369,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>459</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>460</v>
+        <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8435,7 +8429,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>458</v>
+        <v>216</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8447,41 +8441,41 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8493,20 +8487,18 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>465</v>
+        <v>219</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>466</v>
+        <v>220</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8530,13 +8522,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8554,19 +8546,19 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>81</v>
@@ -8575,10 +8567,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8589,11 +8581,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8606,25 +8598,25 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>469</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>331</v>
+        <v>157</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8649,13 +8641,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8673,7 +8665,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8685,30 +8677,30 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8716,10 +8708,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8728,22 +8720,22 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -8768,13 +8760,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -8792,13 +8784,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -8810,23 +8802,499 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8836,7 +9304,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
